--- a/Doc/Small_model.xlsx
+++ b/Doc/Small_model.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5726BA-1581-4348-9DB5-FCBBB925A604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F61267-64CC-C547-9F6B-A4FDD069D6FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="27760" windowHeight="17540" xr2:uid="{FECE7125-381D-0748-A5AB-02E38DD31890}"/>
+    <workbookView xWindow="15700" yWindow="460" windowWidth="27760" windowHeight="17540" activeTab="1" xr2:uid="{FECE7125-381D-0748-A5AB-02E38DD31890}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>No.</t>
   </si>
@@ -63,6 +64,12 @@
   </si>
   <si>
     <t>Glycolysis + lactic acid</t>
+  </si>
+  <si>
+    <t>Protein efficiency</t>
+  </si>
+  <si>
+    <t>Protein cost</t>
   </si>
 </sst>
 </file>
@@ -446,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E270F9-5D41-ED41-8E8C-4BEBEF0E2031}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>397</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -497,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>1010</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -511,7 +518,97 @@
         <v>7</v>
       </c>
       <c r="D4" s="3">
-        <v>210</v>
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA59EE0-CB3D-8548-80C6-1BAABB538A4B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
